--- a/teaching/traditional_assets/database/data/palestinian_authority/palestinian_authority_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/palestinian_authority/palestinian_authority_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.139</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="E2">
-        <v>0.156</v>
+        <v>0.0219</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>74.14999999999999</v>
+        <v>30.96</v>
       </c>
       <c r="L2">
-        <v>0.199435180204411</v>
+        <v>0.1248890681726503</v>
       </c>
       <c r="M2">
-        <v>37.13</v>
+        <v>21.451</v>
       </c>
       <c r="N2">
-        <v>0.04658720200752822</v>
+        <v>0.03818942495994303</v>
       </c>
       <c r="O2">
-        <v>0.5007417397167903</v>
+        <v>0.6928617571059431</v>
       </c>
       <c r="P2">
-        <v>37.13</v>
+        <v>21.451</v>
       </c>
       <c r="Q2">
-        <v>0.04658720200752822</v>
+        <v>0.03818942495994303</v>
       </c>
       <c r="R2">
-        <v>0.5007417397167903</v>
+        <v>0.6928617571059431</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1461.7</v>
+        <v>1499.2</v>
       </c>
       <c r="V2">
-        <v>1.834002509410289</v>
+        <v>2.669040413031867</v>
       </c>
       <c r="W2">
-        <v>0.1164236439570513</v>
+        <v>0.04410585404971933</v>
       </c>
       <c r="X2">
-        <v>0.04970394641836214</v>
+        <v>0.05059871589824147</v>
       </c>
       <c r="Y2">
-        <v>0.06671969753868918</v>
+        <v>-0.006492861848522144</v>
       </c>
       <c r="Z2">
-        <v>-0.5418403334402052</v>
+        <v>-0.6978773717696075</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.04738335843653459</v>
+        <v>0.05003349900778917</v>
       </c>
       <c r="AC2">
-        <v>-0.04738335843653459</v>
+        <v>-0.05003349900778917</v>
       </c>
       <c r="AD2">
-        <v>202.78</v>
+        <v>137.76</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>202.78</v>
+        <v>137.76</v>
       </c>
       <c r="AG2">
-        <v>-1258.92</v>
+        <v>-1361.44</v>
       </c>
       <c r="AH2">
-        <v>0.2028246214167117</v>
+        <v>0.1969519343493552</v>
       </c>
       <c r="AI2">
-        <v>0.197107253251424</v>
+        <v>0.1765565324379053</v>
       </c>
       <c r="AJ2">
-        <v>2.725406996882577</v>
+        <v>1.702353264811064</v>
       </c>
       <c r="AK2">
-        <v>2.907973759586066</v>
+        <v>1.893676801958439</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.06059999999999999</v>
+        <v>0.09820000000000001</v>
       </c>
       <c r="E3">
-        <v>0.14</v>
+        <v>0.0694</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,82 +731,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.12</v>
+        <v>3.36</v>
       </c>
       <c r="L3">
-        <v>0.1971291866028708</v>
+        <v>0.1548387096774194</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>3.05</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.03315217391304347</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.9077380952380952</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>3.05</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.03315217391304347</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.9077380952380952</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>53.9</v>
+        <v>190.2</v>
       </c>
       <c r="V3">
-        <v>0.5438950554994955</v>
+        <v>2.067391304347826</v>
       </c>
       <c r="W3">
-        <v>0.04532453245324532</v>
+        <v>0.03446153846153846</v>
       </c>
       <c r="X3">
-        <v>0.04642199911125416</v>
+        <v>0.04943778134447974</v>
       </c>
       <c r="Y3">
-        <v>-0.00109746665800884</v>
+        <v>-0.01497624288294128</v>
       </c>
       <c r="Z3">
-        <v>-0.3349358974358974</v>
+        <v>-0.4221789883268482</v>
       </c>
       <c r="AA3">
         <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.04642199911125416</v>
+        <v>0.04945219373021825</v>
       </c>
       <c r="AC3">
-        <v>-0.04642199911125416</v>
+        <v>-0.04945219373021825</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AG3">
-        <v>-53.9</v>
+        <v>-187.65</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.02696985721840296</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.02577059120768065</v>
       </c>
       <c r="AJ3">
-        <v>-1.192477876106195</v>
+        <v>1.961840041819132</v>
       </c>
       <c r="AK3">
-        <v>-1.203125</v>
+        <v>2.056438356164384</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -832,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.148</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="E4">
-        <v>0.172</v>
+        <v>0.0219</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -850,28 +853,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.8</v>
+        <v>11.1</v>
       </c>
       <c r="L4">
-        <v>0.2642857142857143</v>
+        <v>0.2298136645962733</v>
       </c>
       <c r="M4">
-        <v>5.78</v>
+        <v>0.101</v>
       </c>
       <c r="N4">
-        <v>0.04079040225829217</v>
+        <v>0.0007990506329113924</v>
       </c>
       <c r="O4">
-        <v>0.3905405405405405</v>
+        <v>0.0090990990990991</v>
       </c>
       <c r="P4">
-        <v>5.78</v>
+        <v>0.101</v>
       </c>
       <c r="Q4">
-        <v>0.04079040225829217</v>
+        <v>0.0007990506329113924</v>
       </c>
       <c r="R4">
-        <v>0.3905405405405405</v>
+        <v>0.0090990990990991</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -880,55 +883,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>211.4</v>
+        <v>193.4</v>
       </c>
       <c r="V4">
-        <v>1.491884262526465</v>
+        <v>1.53006329113924</v>
       </c>
       <c r="W4">
-        <v>0.1428571428571429</v>
+        <v>0.09805653710247349</v>
       </c>
       <c r="X4">
-        <v>0.047689000799085</v>
+        <v>0.05059871589824147</v>
       </c>
       <c r="Y4">
-        <v>0.09516814205805788</v>
+        <v>0.04745782120423202</v>
       </c>
       <c r="Z4">
-        <v>-0.4942630185348632</v>
+        <v>-0.5419658886894074</v>
       </c>
       <c r="AA4">
         <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.04706331935496418</v>
+        <v>0.05003349900778917</v>
       </c>
       <c r="AC4">
-        <v>-0.04706331935496418</v>
+        <v>-0.05003349900778917</v>
       </c>
       <c r="AD4">
-        <v>9.08</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>9.08</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AG4">
-        <v>-202.32</v>
+        <v>-185.29</v>
       </c>
       <c r="AH4">
-        <v>0.06022018835389309</v>
+        <v>0.06029291502490521</v>
       </c>
       <c r="AI4">
-        <v>0.07425580634609094</v>
+        <v>0.06276603978020277</v>
       </c>
       <c r="AJ4">
-        <v>3.337512372154404</v>
+        <v>3.146374596705722</v>
       </c>
       <c r="AK4">
-        <v>2.270197486535009</v>
+        <v>2.886586695747</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -945,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The National Bank (PLSE:TNB)</t>
+          <t>Bank of Palestine Plc (PLSE:BOP)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -954,10 +957,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.419</v>
+        <v>0.0602</v>
       </c>
       <c r="E5">
-        <v>0.212</v>
+        <v>-0.185</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -972,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.43</v>
+        <v>16.5</v>
       </c>
       <c r="L5">
-        <v>0.1108108108108108</v>
+        <v>0.09274873524451939</v>
       </c>
       <c r="M5">
-        <v>7.95</v>
+        <v>18.3</v>
       </c>
       <c r="N5">
-        <v>0.05364372469635628</v>
+        <v>0.05330614622778911</v>
       </c>
       <c r="O5">
-        <v>0.8430540827147402</v>
+        <v>1.109090909090909</v>
       </c>
       <c r="P5">
-        <v>7.95</v>
+        <v>18.3</v>
       </c>
       <c r="Q5">
-        <v>0.05364372469635628</v>
+        <v>0.05330614622778911</v>
       </c>
       <c r="R5">
-        <v>0.8430540827147402</v>
+        <v>1.109090909090909</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1002,182 +1005,60 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>498.3</v>
+        <v>1115.6</v>
       </c>
       <c r="V5">
-        <v>3.362348178137652</v>
+        <v>3.249635886979318</v>
       </c>
       <c r="W5">
-        <v>0.0966188524590164</v>
+        <v>0.04410585404971933</v>
       </c>
       <c r="X5">
-        <v>0.05768244111543584</v>
+        <v>0.06034862672845114</v>
       </c>
       <c r="Y5">
-        <v>0.03893641134358056</v>
+        <v>-0.01624277267873181</v>
       </c>
       <c r="Z5">
-        <v>-1.665362035225049</v>
+        <v>-0.8285980437820215</v>
       </c>
       <c r="AA5">
         <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.047703397518105</v>
+        <v>0.05518129119021529</v>
       </c>
       <c r="AC5">
-        <v>-0.047703397518105</v>
+        <v>-0.05518129119021529</v>
       </c>
       <c r="AD5">
-        <v>84.40000000000001</v>
+        <v>127.1</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>84.40000000000001</v>
+        <v>127.1</v>
       </c>
       <c r="AG5">
-        <v>-413.9</v>
+        <v>-988.4999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.3628546861564919</v>
+        <v>0.2701955782312925</v>
       </c>
       <c r="AI5">
-        <v>0.3099522585383768</v>
+        <v>0.2302119181307734</v>
       </c>
       <c r="AJ5">
-        <v>1.557771923221678</v>
+        <v>1.532083075015499</v>
       </c>
       <c r="AK5">
-        <v>1.83141592920354</v>
+        <v>1.754214729370009</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Palestinian Authority</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bank of Palestine (PLSE:BOP)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>0.13</v>
-      </c>
-      <c r="E6">
-        <v>0.0335</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>45.8</v>
-      </c>
-      <c r="L6">
-        <v>0.2183031458531935</v>
-      </c>
-      <c r="M6">
-        <v>23.4</v>
-      </c>
-      <c r="N6">
-        <v>0.05735294117647059</v>
-      </c>
-      <c r="O6">
-        <v>0.5109170305676856</v>
-      </c>
-      <c r="P6">
-        <v>23.4</v>
-      </c>
-      <c r="Q6">
-        <v>0.05735294117647059</v>
-      </c>
-      <c r="R6">
-        <v>0.5109170305676856</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>698.1</v>
-      </c>
-      <c r="V6">
-        <v>1.711029411764706</v>
-      </c>
-      <c r="W6">
-        <v>0.1362284354550863</v>
-      </c>
-      <c r="X6">
-        <v>0.05171889203763927</v>
-      </c>
-      <c r="Y6">
-        <v>0.08450954341744699</v>
-      </c>
-      <c r="Z6">
-        <v>-0.4567025120815013</v>
-      </c>
-      <c r="AA6">
-        <v>-0</v>
-      </c>
-      <c r="AB6">
-        <v>0.04867214420375898</v>
-      </c>
-      <c r="AC6">
-        <v>-0.04867214420375898</v>
-      </c>
-      <c r="AD6">
-        <v>109.3</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>109.3</v>
-      </c>
-      <c r="AG6">
-        <v>-588.8000000000001</v>
-      </c>
-      <c r="AH6">
-        <v>0.2112893872027837</v>
-      </c>
-      <c r="AI6">
-        <v>0.2041083099906629</v>
-      </c>
-      <c r="AJ6">
-        <v>3.256637168141592</v>
-      </c>
-      <c r="AK6">
-        <v>3.621156211562114</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
         <v>0</v>
       </c>
     </row>
